--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_NZL.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_NZL.xlsx
@@ -499,7 +499,7 @@
         <v>4624</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         <v>7194</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -655,7 +655,7 @@
         <v>4257</v>
       </c>
       <c r="C17" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -694,7 +694,7 @@
         <v>3932</v>
       </c>
       <c r="C20" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -720,7 +720,7 @@
         <v>4850</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -746,7 +746,7 @@
         <v>4509</v>
       </c>
       <c r="C24" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -772,7 +772,7 @@
         <v>6150</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -824,7 +824,7 @@
         <v>7116</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>4243</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -876,7 +876,7 @@
         <v>4851</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -915,7 +915,7 @@
         <v>5927</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_NZL.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_NZL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
